--- a/Excel Clas.xlsx
+++ b/Excel Clas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unnati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\newRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F2F3C-47A0-4602-8796-BA744BFBC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A920D-8320-461F-B9F9-26434A00EC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="4680" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>age</t>
   </si>
   <si>
     <t>salary</t>
+  </si>
+  <si>
+    <t>start_date</t>
   </si>
 </sst>
 </file>
@@ -348,23 +351,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18</v>
       </c>
